--- a/Описание методов/случай №2.xlsx
+++ b/Описание методов/случай №2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Учеба. Никита\Курсовая 3 курс\Описание методов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист15" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
   <si>
     <t>Альфа</t>
   </si>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,9 +1906,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2200,11 +2205,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2223,37 +2233,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,16 +2263,16 @@
         <v>0.1</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,16 +2280,16 @@
         <v>0.1</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,40 +2310,60 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="A8">
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
